--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_14_9.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_14_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1195936.430623916</v>
+        <v>-1198575.777941938</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14255873.2746208</v>
+        <v>14255873.27462081</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>306.4696139672926</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>122.8178581271337</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>114.705398918441</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>70.53562295839077</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,13 +908,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>214.6970355467818</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>201.382536660014</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,25 +1051,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1102,19 +1102,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>47.86783025244318</v>
+        <v>271.7836286487783</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>184.2161764165146</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>79.76470074482967</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>25.78707624160779</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>137.233813209025</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -1345,13 +1345,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1424,7 +1424,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1537,7 +1537,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>5.890337106877502</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>32.44181015856723</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1774,10 +1774,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>156.0551722706124</v>
       </c>
       <c r="U16" t="n">
-        <v>245.9454996361808</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,16 +2050,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>221.6488161050624</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2248,16 +2248,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>136.9649966249138</v>
+        <v>152.6628237007935</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2299,7 +2299,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2479,19 +2479,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>120.8326485140796</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2564,7 +2564,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2725,13 +2725,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,7 +2764,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>78.9105100867805</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2846,7 +2846,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2959,16 +2959,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>68.17501931583779</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3044,7 +3044,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652651</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V34" t="n">
         <v>227.8529958317883</v>
@@ -3250,7 +3250,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y34" t="n">
         <v>194.3000058600551</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3424,25 +3424,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3487,7 +3487,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,25 +3661,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3749,7 +3749,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417126</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652586</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972045</v>
       </c>
       <c r="V43" t="n">
         <v>227.8529958317883</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4189,7 +4189,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972045</v>
       </c>
       <c r="V46" t="n">
         <v>227.8529958317883</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1412.134398099142</v>
+        <v>1879.308303505447</v>
       </c>
       <c r="C2" t="n">
-        <v>1043.17188115873</v>
+        <v>1510.345786565035</v>
       </c>
       <c r="D2" t="n">
-        <v>1043.17188115873</v>
+        <v>1152.080087958285</v>
       </c>
       <c r="E2" t="n">
-        <v>657.3836285604862</v>
+        <v>766.2918353600404</v>
       </c>
       <c r="F2" t="n">
-        <v>533.3251860078259</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4373,7 +4373,7 @@
         <v>2188.873570139076</v>
       </c>
       <c r="Y2" t="n">
-        <v>1798.734238163264</v>
+        <v>2188.873570139076</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625329</v>
+        <v>593.0223835625332</v>
       </c>
       <c r="M3" t="n">
-        <v>956.284402521753</v>
+        <v>1227.201367341572</v>
       </c>
       <c r="N3" t="n">
-        <v>1343.569531118698</v>
+        <v>1614.486495938517</v>
       </c>
       <c r="O3" t="n">
-        <v>1675.63996629486</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P3" t="n">
-        <v>2238.100841080694</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q3" t="n">
         <v>2538.001278676482</v>
@@ -4440,16 +4440,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,37 +4462,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1590.995858314208</v>
+        <v>1387.807075285521</v>
       </c>
       <c r="C4" t="n">
-        <v>1422.059675386301</v>
+        <v>1271.943035973964</v>
       </c>
       <c r="D4" t="n">
-        <v>1271.943035973965</v>
+        <v>1271.943035973964</v>
       </c>
       <c r="E4" t="n">
-        <v>1124.029942391572</v>
+        <v>1124.029942391571</v>
       </c>
       <c r="F4" t="n">
-        <v>977.1399948936618</v>
+        <v>977.1399948936612</v>
       </c>
       <c r="G4" t="n">
-        <v>977.1399948936618</v>
+        <v>977.1399948936612</v>
       </c>
       <c r="H4" t="n">
-        <v>977.1399948936618</v>
+        <v>977.1399948936612</v>
       </c>
       <c r="I4" t="n">
-        <v>977.1399948936618</v>
+        <v>977.1399948936612</v>
       </c>
       <c r="J4" t="n">
-        <v>1002.609167878781</v>
+        <v>1002.60916787878</v>
       </c>
       <c r="K4" t="n">
         <v>1174.299679627706</v>
       </c>
       <c r="L4" t="n">
-        <v>1449.530858294982</v>
+        <v>1449.530858294981</v>
       </c>
       <c r="M4" t="n">
         <v>1750.112669035317</v>
@@ -4510,28 +4510,28 @@
         <v>2562.339328400155</v>
       </c>
       <c r="R4" t="n">
-        <v>2491.091224401781</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S4" t="n">
-        <v>2294.462476561642</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T4" t="n">
-        <v>2294.462476561642</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U4" t="n">
-        <v>2294.462476561642</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V4" t="n">
-        <v>2039.777988355755</v>
+        <v>2307.654840194269</v>
       </c>
       <c r="W4" t="n">
-        <v>2039.777988355755</v>
+        <v>2018.237670157308</v>
       </c>
       <c r="X4" t="n">
-        <v>1811.788437457738</v>
+        <v>1790.248119259291</v>
       </c>
       <c r="Y4" t="n">
-        <v>1590.995858314208</v>
+        <v>1569.455540115761</v>
       </c>
     </row>
     <row r="5">
@@ -4541,40 +4541,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1489.525984198214</v>
+        <v>1632.688211171978</v>
       </c>
       <c r="C5" t="n">
-        <v>1489.525984198214</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="D5" t="n">
-        <v>1131.260285591463</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="E5" t="n">
-        <v>745.472032993219</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="F5" t="n">
-        <v>334.4861282036115</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J5" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.517185281608</v>
+        <v>442.5171852816083</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872912</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
@@ -4583,34 +4583,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.89447953245</v>
+        <v>2358.922624703172</v>
       </c>
       <c r="U5" t="n">
-        <v>2228.89447953245</v>
+        <v>2358.922624703172</v>
       </c>
       <c r="V5" t="n">
-        <v>2228.89447953245</v>
+        <v>2358.922624703172</v>
       </c>
       <c r="W5" t="n">
-        <v>1876.125824262336</v>
+        <v>2006.153969433058</v>
       </c>
       <c r="X5" t="n">
-        <v>1876.125824262336</v>
+        <v>1632.688211171978</v>
       </c>
       <c r="Y5" t="n">
-        <v>1876.125824262336</v>
+        <v>1632.688211171978</v>
       </c>
     </row>
     <row r="6">
@@ -4620,52 +4620,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>423.148951518066</v>
+        <v>560.1394111735142</v>
       </c>
       <c r="L6" t="n">
-        <v>1057.327935297104</v>
+        <v>854.8429682049859</v>
       </c>
       <c r="M6" t="n">
-        <v>1456.147065963532</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N6" t="n">
-        <v>1843.432194560477</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O6" t="n">
-        <v>2175.502629736639</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P6" t="n">
-        <v>2422.685363568936</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4677,7 +4677,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4686,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,49 +4699,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>981.8280128167645</v>
+        <v>367.1463448421176</v>
       </c>
       <c r="C7" t="n">
-        <v>812.8918298888576</v>
+        <v>367.1463448421176</v>
       </c>
       <c r="D7" t="n">
-        <v>662.7751904765219</v>
+        <v>367.1463448421176</v>
       </c>
       <c r="E7" t="n">
-        <v>514.8620968941287</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="F7" t="n">
-        <v>367.9721493962184</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312196</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
@@ -4750,25 +4750,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1439.817372234358</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1439.817372234358</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="U7" t="n">
-        <v>1439.817372234358</v>
+        <v>1124.349301773071</v>
       </c>
       <c r="V7" t="n">
-        <v>1439.817372234358</v>
+        <v>869.6648135671838</v>
       </c>
       <c r="W7" t="n">
-        <v>1391.466028545022</v>
+        <v>595.135895740135</v>
       </c>
       <c r="X7" t="n">
-        <v>1163.476477647004</v>
+        <v>367.1463448421176</v>
       </c>
       <c r="Y7" t="n">
-        <v>1163.476477647004</v>
+        <v>367.1463448421176</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1698.50962791956</v>
+        <v>1232.584018541385</v>
       </c>
       <c r="C8" t="n">
-        <v>1698.50962791956</v>
+        <v>1232.584018541385</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>488.5300673363904</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>77.54416254678287</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794325</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450754</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.97538618064</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.50962791956</v>
+        <v>1808.800296392464</v>
       </c>
       <c r="Y8" t="n">
-        <v>1698.50962791956</v>
+        <v>1418.660964416652</v>
       </c>
     </row>
     <row r="9">
@@ -4875,28 +4875,28 @@
         <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>504.4781294962293</v>
+        <v>520.9582602004501</v>
       </c>
       <c r="C10" t="n">
-        <v>504.4781294962293</v>
+        <v>352.0220772725432</v>
       </c>
       <c r="D10" t="n">
-        <v>504.4781294962293</v>
+        <v>352.0220772725432</v>
       </c>
       <c r="E10" t="n">
-        <v>478.4305777370295</v>
+        <v>352.0220772725432</v>
       </c>
       <c r="F10" t="n">
-        <v>331.5406302391191</v>
+        <v>205.1321297746329</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="V10" t="n">
-        <v>1134.908724368016</v>
+        <v>1259.157560278958</v>
       </c>
       <c r="W10" t="n">
-        <v>1134.908724368016</v>
+        <v>969.7403902419976</v>
       </c>
       <c r="X10" t="n">
-        <v>906.9191734699991</v>
+        <v>741.7508393439803</v>
       </c>
       <c r="Y10" t="n">
-        <v>686.126594326469</v>
+        <v>520.9582602004501</v>
       </c>
     </row>
     <row r="11">
@@ -5015,16 +5015,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
@@ -5033,58 +5033,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5112,28 +5112,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>427.7414352191925</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1022.530292372932</v>
+        <v>951.7772127656159</v>
       </c>
       <c r="C13" t="n">
-        <v>853.5941094450255</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D13" t="n">
-        <v>703.4774700326898</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E13" t="n">
-        <v>555.5643764502967</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F13" t="n">
-        <v>408.6744289523863</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>241.4783296672662</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>99.7664985094643</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5206,43 +5206,43 @@
         <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910805</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570813</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487567</v>
+        <v>2227.361618603197</v>
       </c>
       <c r="U13" t="n">
-        <v>2197.062545487567</v>
+        <v>1938.286391947395</v>
       </c>
       <c r="V13" t="n">
-        <v>1942.37805728168</v>
+        <v>1683.601903741508</v>
       </c>
       <c r="W13" t="n">
-        <v>1652.96088724472</v>
+        <v>1394.184733704547</v>
       </c>
       <c r="X13" t="n">
-        <v>1424.971336346702</v>
+        <v>1166.19518280653</v>
       </c>
       <c r="Y13" t="n">
-        <v>1204.178757203172</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="14">
@@ -5270,16 +5270,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332386</v>
@@ -5291,37 +5291,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5349,25 +5349,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>956.9553291057244</v>
+        <v>642.8692823226941</v>
       </c>
       <c r="C16" t="n">
-        <v>788.0191461778176</v>
+        <v>473.9330993947872</v>
       </c>
       <c r="D16" t="n">
-        <v>637.9025067654818</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E16" t="n">
-        <v>489.9894131830887</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5452,34 +5452,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T16" t="n">
-        <v>2379.917379832663</v>
+        <v>2106.476762093131</v>
       </c>
       <c r="U16" t="n">
-        <v>2131.487582220359</v>
+        <v>1817.401535437329</v>
       </c>
       <c r="V16" t="n">
-        <v>1876.803094014472</v>
+        <v>1562.717047231442</v>
       </c>
       <c r="W16" t="n">
-        <v>1587.385923977512</v>
+        <v>1273.299877194481</v>
       </c>
       <c r="X16" t="n">
-        <v>1359.396373079494</v>
+        <v>1045.310326296464</v>
       </c>
       <c r="Y16" t="n">
-        <v>1138.603793935964</v>
+        <v>824.5177471529338</v>
       </c>
     </row>
     <row r="17">
@@ -5510,13 +5510,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5604,13 +5604,13 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5698,25 +5698,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="20">
@@ -5726,31 +5726,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
@@ -5759,10 +5759,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.422291068009</v>
@@ -5783,19 +5783,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5829,28 +5829,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>214.9229991561138</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>214.9229991561138</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>710.2486053718725</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>662.1522880254209</v>
+        <v>868.6673633290469</v>
       </c>
       <c r="C22" t="n">
-        <v>493.2161050975141</v>
+        <v>699.73118040114</v>
       </c>
       <c r="D22" t="n">
-        <v>343.0994656851783</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E22" t="n">
-        <v>343.0994656851783</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2125.759767795858</v>
+        <v>2042.857673062523</v>
       </c>
       <c r="U22" t="n">
-        <v>1836.684541140056</v>
+        <v>1753.782446406721</v>
       </c>
       <c r="V22" t="n">
-        <v>1582.000052934169</v>
+        <v>1499.097958200834</v>
       </c>
       <c r="W22" t="n">
-        <v>1292.582882897208</v>
+        <v>1499.097958200834</v>
       </c>
       <c r="X22" t="n">
-        <v>1064.593331999191</v>
+        <v>1271.108407302817</v>
       </c>
       <c r="Y22" t="n">
-        <v>843.8007528556607</v>
+        <v>1050.315828159287</v>
       </c>
     </row>
     <row r="23">
@@ -5966,70 +5966,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>506.2737913123336</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1103.652278938886</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1731.250242493492</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>991.7436897307817</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>822.8075068028749</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>672.6908673905391</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>524.777773808146</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1394.184733704551</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1173.392154561021</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6412,22 +6412,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6452,13 +6452,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6470,10 +6470,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6537,25 +6537,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6680,16 +6680,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6774,25 +6774,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319328</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C34" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150025</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942661</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580121</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345483</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384027</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6859,10 +6859,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6911,34 +6911,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7011,19 +7011,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
         <v>2001.151557821488</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319328</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C37" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942657</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580109</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797189</v>
@@ -7096,7 +7096,7 @@
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L37" t="n">
         <v>898.2659412311323</v>
@@ -7114,7 +7114,7 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R37" t="n">
         <v>2596.781734931273</v>
@@ -7123,22 +7123,22 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="38">
@@ -7172,19 +7172,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745238</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.79311422913</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319317</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656811</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150016</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942648</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580107</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.555303634547</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
@@ -7330,13 +7330,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954149</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7354,28 +7354,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="41">
@@ -7385,34 +7385,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,40 +7421,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="42">
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,25 +7482,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403286</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656816</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384021</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J43" t="n">
         <v>198.0944824954149</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7585,16 +7585,16 @@
         <v>2179.340199382518</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q43" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931275</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7603,7 +7603,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W43" t="n">
         <v>1483.798285518751</v>
@@ -7643,31 +7643,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7722,22 +7722,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C46" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7804,13 +7804,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7828,7 +7828,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
         <v>2438.456847547835</v>
@@ -7840,7 +7840,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
         <v>1483.798285518751</v>
@@ -8064,19 +8064,19 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>273.6534998179983</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>231.2582814363238</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>186.4490126143858</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,16 +8292,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>342.9044714621886</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>35.91627445172475</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8310,13 +8310,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>265.0304328515139</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -22544,28 +22544,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>76.26422769618802</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>284.0581876145778</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>163.6175337383166</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22601,19 +22601,19 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>288.5469582349971</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -23312,7 +23312,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23425,7 +23425,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>75.37549921168804</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>186.1428431935276</v>
       </c>
     </row>
     <row r="14">
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23662,10 +23662,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>61.3502780566759</v>
       </c>
       <c r="U16" t="n">
-        <v>40.2389747530633</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23893,19 +23893,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23938,16 +23938,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>64.53565828418178</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24136,16 +24136,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>80.4404537023745</v>
+        <v>64.74262662649477</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24367,19 +24367,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>24.58839950885168</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24613,13 +24613,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,7 +24652,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24847,16 +24847,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>77.24602870709346</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -26314,13 +26314,13 @@
         <v>152326.9268048895</v>
       </c>
       <c r="C2" t="n">
-        <v>184734.3982194636</v>
+        <v>184734.3982194637</v>
       </c>
       <c r="D2" t="n">
-        <v>184734.3982194638</v>
+        <v>184734.3982194639</v>
       </c>
       <c r="E2" t="n">
-        <v>181607.9849302513</v>
+        <v>181607.9849302514</v>
       </c>
       <c r="F2" t="n">
         <v>181607.9849302513</v>
@@ -26329,13 +26329,13 @@
         <v>181607.9849302514</v>
       </c>
       <c r="H2" t="n">
+        <v>181607.9849302514</v>
+      </c>
+      <c r="I2" t="n">
         <v>181607.9849302513</v>
       </c>
-      <c r="I2" t="n">
-        <v>181607.9849302514</v>
-      </c>
       <c r="J2" t="n">
-        <v>181607.9849302514</v>
+        <v>181607.9849302513</v>
       </c>
       <c r="K2" t="n">
         <v>181607.9849302513</v>
@@ -26344,16 +26344,16 @@
         <v>184734.3982194636</v>
       </c>
       <c r="M2" t="n">
+        <v>184734.3982194637</v>
+      </c>
+      <c r="N2" t="n">
         <v>184734.3982194636</v>
-      </c>
-      <c r="N2" t="n">
-        <v>184734.3982194637</v>
       </c>
       <c r="O2" t="n">
         <v>184734.3982194636</v>
       </c>
       <c r="P2" t="n">
-        <v>184734.3982194636</v>
+        <v>184734.3982194637</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.140440338</v>
+        <v>192627.1404403377</v>
       </c>
       <c r="E3" t="n">
         <v>325412.4618073551</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>67721.68800182255</v>
+        <v>67721.68800182246</v>
       </c>
       <c r="M3" t="n">
         <v>85055.02793551178</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.45498085860163e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>54516.86175496502</v>
+        <v>54516.861754965</v>
       </c>
       <c r="C4" t="n">
         <v>136726.2736921025</v>
       </c>
       <c r="D4" t="n">
-        <v>88524.23512810786</v>
+        <v>88524.2351281079</v>
       </c>
       <c r="E4" t="n">
         <v>9337.200356756592</v>
@@ -26430,19 +26430,19 @@
         <v>9337.200356756592</v>
       </c>
       <c r="G4" t="n">
-        <v>9337.20035675661</v>
+        <v>9337.200356756583</v>
       </c>
       <c r="H4" t="n">
         <v>9337.20035675659</v>
       </c>
       <c r="I4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="J4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.200356756652</v>
       </c>
       <c r="K4" t="n">
-        <v>9337.200356756603</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="L4" t="n">
         <v>17328.05961985007</v>
@@ -26451,13 +26451,13 @@
         <v>17328.05961985006</v>
       </c>
       <c r="N4" t="n">
-        <v>17328.05961985005</v>
+        <v>17328.05961985006</v>
       </c>
       <c r="O4" t="n">
-        <v>17328.05961985005</v>
+        <v>17328.05961984998</v>
       </c>
       <c r="P4" t="n">
-        <v>17328.05961985005</v>
+        <v>17328.05961985004</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1109879.49096584</v>
+        <v>-1110239.573981558</v>
       </c>
       <c r="C6" t="n">
-        <v>-44929.64791248363</v>
+        <v>-44929.64791248349</v>
       </c>
       <c r="D6" t="n">
-        <v>-204350.9179103754</v>
+        <v>-204350.917910375</v>
       </c>
       <c r="E6" t="n">
-        <v>-254264.2070577675</v>
+        <v>-254298.9449832031</v>
       </c>
       <c r="F6" t="n">
-        <v>71148.25474958765</v>
+        <v>71113.51682415188</v>
       </c>
       <c r="G6" t="n">
-        <v>71148.25474958766</v>
+        <v>71113.516824152</v>
       </c>
       <c r="H6" t="n">
-        <v>71148.25474958764</v>
+        <v>71113.516824152</v>
       </c>
       <c r="I6" t="n">
-        <v>71148.25474958766</v>
+        <v>71113.51682415185</v>
       </c>
       <c r="J6" t="n">
-        <v>-96456.92306039488</v>
+        <v>-96491.6609858306</v>
       </c>
       <c r="K6" t="n">
-        <v>71148.25474958761</v>
+        <v>71113.51682415188</v>
       </c>
       <c r="L6" t="n">
-        <v>-3479.465256124458</v>
+        <v>-3479.465256124342</v>
       </c>
       <c r="M6" t="n">
-        <v>-20812.80518981365</v>
+        <v>-20812.80518981356</v>
       </c>
       <c r="N6" t="n">
-        <v>64242.22274569824</v>
+        <v>64242.22274569812</v>
       </c>
       <c r="O6" t="n">
-        <v>64242.22274569818</v>
+        <v>64242.222745698</v>
       </c>
       <c r="P6" t="n">
-        <v>64242.22274569821</v>
+        <v>64242.22274569835</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
     </row>
     <row r="3">
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26790,10 +26790,10 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26826,7 +26826,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,13 +26957,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757592</v>
+        <v>155.711808475759</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483754</v>
@@ -26996,7 +26996,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27015,7 +27015,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022541</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="E4" t="n">
         <v>341.3068326973555</v>
@@ -27033,13 +27033,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000386</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022541</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="M4" t="n">
         <v>341.3068326973555</v>
@@ -27261,7 +27261,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022541</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="M4" t="n">
         <v>341.3068326973555</v>
@@ -27394,7 +27394,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>137.4010188240888</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27433,13 +27433,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>39.20530023513783</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>52.54142218018686</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27552,7 +27552,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>31.02194946118286</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
@@ -27597,7 +27597,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,13 +27628,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>196.8506672261722</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>5.275648320219744</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
@@ -27679,7 +27679,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27771,25 +27771,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27822,19 +27822,19 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>238.6551680841478</v>
+        <v>14.73936968781265</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>198.517665246966</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>274.9183408758533</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>120.6468864049614</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>28.79199505000327</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28065,13 +28065,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28099,7 +28099,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28278,7 +28278,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>-2.241631118489267e-12</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28524,7 +28524,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>-9.426533627750662e-13</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-1.70530256582424e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -29284,7 +29284,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -29566,7 +29566,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -29764,7 +29764,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="35">
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="41">
@@ -30469,7 +30469,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>-1.193711796076968e-12</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203965</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203967</v>
       </c>
     </row>
   </sheetData>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,34 +31133,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,34 +31370,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31467,16 +31467,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31838,16 +31838,16 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>441.0292693655512</v>
       </c>
       <c r="M12" t="n">
-        <v>433.9798411722591</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
@@ -31856,7 +31856,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
@@ -32072,10 +32072,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
@@ -32090,7 +32090,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>551.7051287319853</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32324,16 +32324,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O18" t="n">
-        <v>163.1438255932938</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32491,7 +32491,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32549,10 +32549,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>247.3820194983584</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32561,19 +32561,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32728,7 +32728,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
         <v>345.4516222043725</v>
@@ -32783,22 +32783,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>555.1777416630679</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -32807,10 +32807,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32941,7 +32941,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33020,34 +33020,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,13 +33257,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33275,10 +33275,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33494,13 +33494,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33512,10 +33512,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33655,7 +33655,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K35" t="n">
         <v>699.5441750817575</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33743,10 +33743,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N36" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33968,16 +33968,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>337.5641188593844</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33989,13 +33989,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34211,19 +34211,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>337.5641188593833</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34235,13 +34235,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P43" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043711</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,31 +34436,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34472,13 +34472,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P46" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>566.6829634324469</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634694</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>302.9297349452403</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977091</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35012,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
-        <v>640.5848321000387</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>402.8476067337652</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>514.7099619750462</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308545</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35486,16 +35486,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>302.474889585677</v>
       </c>
       <c r="M12" t="n">
-        <v>291.8458072502408</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
@@ -35504,7 +35504,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
@@ -35574,7 +35574,7 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010406</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
@@ -35720,10 +35720,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
@@ -35738,7 +35738,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>409.1088842875408</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35820,7 +35820,7 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.631773306624</v>
       </c>
       <c r="Q16" t="n">
         <v>120.4022572998984</v>
@@ -35972,16 +35972,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O18" t="n">
-        <v>20.54758114884936</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36139,7 +36139,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36197,10 +36197,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>120.5443928316917</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36209,19 +36209,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36376,7 +36376,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902404</v>
@@ -36431,22 +36431,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>416.6233618831937</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36455,10 +36455,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36589,7 +36589,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,13 +36905,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36923,10 +36923,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37142,13 +37142,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37160,10 +37160,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37224,13 +37224,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
         <v>450.5570744930848</v>
@@ -37242,10 +37242,10 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P34" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37391,10 +37391,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N36" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
         <v>288.6172359016746</v>
@@ -37479,10 +37479,10 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37616,16 +37616,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>199.0097390795102</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37637,13 +37637,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,25 +37853,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>199.0097390795091</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.866084390239</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,25 +38090,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
